--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aljos\OneDrive\Рабочий стол\prog\Restaurant_menu\app\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Меню</t>
   </si>
@@ -187,14 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -429,7 +428,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -437,8 +436,8 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,273 +451,280 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>182.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>215.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>265.57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>166.47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>168.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>132.88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3">
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>2700.79</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>3100.33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>1850.42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>420.78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>440.11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>520.08000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
@@ -1703,4 +1709,311 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>182.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3">
+        <v>215.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>265.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>166.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>168.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>132.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2700.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3100.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1850.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>440.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1">
+        <v>520.08000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Меню</t>
   </si>
@@ -133,13 +132,67 @@
   </si>
   <si>
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+  </si>
+  <si>
+    <t>c24fa3f6-4b1f-42ac-af67-9d3c00cf7ecd</t>
+  </si>
+  <si>
+    <t>9fce2b11-1069-4691-b348-9e286cb5a7ea</t>
+  </si>
+  <si>
+    <t>252bc1c3-76ad-4270-8d31-47bc82f3c488</t>
+  </si>
+  <si>
+    <t>3ae51086-f787-42fb-9de6-91614563eb6c</t>
+  </si>
+  <si>
+    <t>c41fa076-45a4-45a3-b11e-01d4064de3f2</t>
+  </si>
+  <si>
+    <t>26e033c5-5bcd-469a-84d9-68cc54091894</t>
+  </si>
+  <si>
+    <t>4ac90f1a-781e-46d2-b90e-5fc1b7a1ed3d</t>
+  </si>
+  <si>
+    <t>fbc86a31-1fa4-493f-8871-9e0192e6a5b3</t>
+  </si>
+  <si>
+    <t>8772341f-f7fe-4273-aa22-0ca3fdcd68a5</t>
+  </si>
+  <si>
+    <t>f465efd4-2fbf-4dcc-b39d-a7344efcf92c</t>
+  </si>
+  <si>
+    <t>045b594a-5649-4513-a3e7-c1838a1353ed</t>
+  </si>
+  <si>
+    <t>18c69baf-b1dc-479d-b338-b04a1fb4be1e</t>
+  </si>
+  <si>
+    <t>64c43cae-1721-4617-be97-23a62b1074d7</t>
+  </si>
+  <si>
+    <t>5b584494-0190-490f-85f1-5df20f674481</t>
+  </si>
+  <si>
+    <t>75dea70b-6788-4ee1-ab0e-5aedc27629e2</t>
+  </si>
+  <si>
+    <t>4a092eda-a718-46b2-97f0-a65290b564e8</t>
+  </si>
+  <si>
+    <t>250d9783-ed01-465d-9257-4be2fb893436</t>
+  </si>
+  <si>
+    <t>98018cfd-4190-464f-beae-3989bcd7b555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +205,15 @@
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,6 +246,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -191,9 +268,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -207,11 +281,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -425,25 +613,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="200.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="1">
-        <v>1</v>
+      <c r="A1" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -451,280 +638,273 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>182.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>215.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>265.57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>166.47</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>166.47</v>
+        <v>168.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>168.25</v>
+        <v>132.88</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>132.88</v>
-      </c>
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2700.79</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>2700.79</v>
+        <v>3100.33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>3100.33</v>
+        <v>1850.42</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1850.42</v>
-      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>420.78</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="1">
-        <v>420.78</v>
+        <v>440.11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="1">
-        <v>440.11</v>
+        <v>520.08000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1">
-        <v>520.08000000000004</v>
-      </c>
-    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
@@ -1705,315 +1885,41 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C9">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12 C14">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>182.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3">
-        <v>215.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>265.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>166.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>168.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>132.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2700.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3100.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1850.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1">
-        <v>420.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1">
-        <v>440.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1">
-        <v>520.08000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -615,8 +615,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -839,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>1850.42</v>
+        <v>2222.2199999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">

--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -615,8 +615,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>182.99</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
@@ -685,7 +685,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="2">
-        <v>215.36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>265.57</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
